--- a/Faturados_YTD.xlsx
+++ b/Faturados_YTD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Código Produto</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Teste Cross Selling</t>
-  </si>
-  <si>
-    <t>999999</t>
   </si>
   <si>
     <t>999998</t>
@@ -465,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,51 +520,51 @@
         <v>45915</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>45915</v>
+        <v>45920</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -576,51 +573,13 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45920</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Faturados_YTD.xlsx
+++ b/Faturados_YTD.xlsx
@@ -67,7 +67,7 @@
     <t>999998</t>
   </si>
   <si>
-    <t>CS-Test</t>
+    <t>999997</t>
   </si>
   <si>
     <t>100</t>
